--- a/productsearchapi.xlsx
+++ b/productsearchapi.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="202300"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D77B1FD9-EFE0-564E-B28D-CC10EEF8DEE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{2221C64D-695B-E349-86EE-5BC258D74B89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,15 +28,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
-  <si>
-    <t>Testcase1</t>
-  </si>
-  <si>
-    <t>Samsung</t>
-  </si>
-  <si>
-    <t>Testcase2</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="13">
+  <si>
+    <t>Samsung Mobile</t>
+  </si>
+  <si>
+    <t>Apple</t>
+  </si>
+  <si>
+    <t>TC_Search_Product1</t>
+  </si>
+  <si>
+    <t>TC_Search_Product2</t>
+  </si>
+  <si>
+    <t>TC_BUY_1</t>
+  </si>
+  <si>
+    <t>TC_BUY_2</t>
+  </si>
+  <si>
+    <t>{"quantity":1}</t>
+  </si>
+  <si>
+    <t>{"quantity":2}</t>
   </si>
 </sst>
 </file>
@@ -408,7 +423,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE508D14-F21B-054C-8F12-40F6CC4D3D48}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
@@ -416,31 +431,64 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
       <c r="C2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
       </c>
       <c r="C3">
-        <v>10</v>
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
